--- a/Code/Results/Cases/Case_1_140/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_140/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9145155103197824</v>
+        <v>1.032832748375253</v>
       </c>
       <c r="D2">
-        <v>1.022579962057285</v>
+        <v>1.046344668908361</v>
       </c>
       <c r="E2">
-        <v>0.9302793061751522</v>
+        <v>1.03195827190779</v>
       </c>
       <c r="F2">
-        <v>1.005546189499887</v>
+        <v>1.053196334805676</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044037869891105</v>
+        <v>1.03766955874605</v>
       </c>
       <c r="J2">
-        <v>0.9395926474810687</v>
+        <v>1.0379607991498</v>
       </c>
       <c r="K2">
-        <v>1.033733435750624</v>
+        <v>1.049110366666996</v>
       </c>
       <c r="L2">
-        <v>0.9428037214915116</v>
+        <v>1.034764887323942</v>
       </c>
       <c r="M2">
-        <v>1.01692879410265</v>
+        <v>1.055942971156751</v>
       </c>
       <c r="N2">
-        <v>0.9409269768132749</v>
+        <v>1.03943482254036</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9318987339950215</v>
+        <v>1.035573872792656</v>
       </c>
       <c r="D3">
-        <v>1.027880656992014</v>
+        <v>1.047226457215766</v>
       </c>
       <c r="E3">
-        <v>0.9452320951732373</v>
+        <v>1.034356095755814</v>
       </c>
       <c r="F3">
-        <v>1.013975191858001</v>
+        <v>1.054590940309874</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04604688952123</v>
+        <v>1.037907034404308</v>
       </c>
       <c r="J3">
-        <v>0.9544353069918439</v>
+        <v>1.040335306844945</v>
       </c>
       <c r="K3">
-        <v>1.038168807433346</v>
+        <v>1.049803596280695</v>
       </c>
       <c r="L3">
-        <v>0.9566172633910659</v>
+        <v>1.03696713436302</v>
       </c>
       <c r="M3">
-        <v>1.024432326500366</v>
+        <v>1.05714908345357</v>
       </c>
       <c r="N3">
-        <v>0.955790714603032</v>
+        <v>1.041812702308792</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9423952700932012</v>
+        <v>1.037337268428877</v>
       </c>
       <c r="D4">
-        <v>1.031132088738827</v>
+        <v>1.047793676142792</v>
       </c>
       <c r="E4">
-        <v>0.9542734929962505</v>
+        <v>1.035898217808485</v>
       </c>
       <c r="F4">
-        <v>1.019118828233066</v>
+        <v>1.055487825837564</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047258596997461</v>
+        <v>1.03805792104658</v>
       </c>
       <c r="J4">
-        <v>0.9633968273653091</v>
+        <v>1.041861729071215</v>
       </c>
       <c r="K4">
-        <v>1.040868753327844</v>
+        <v>1.050248177205821</v>
       </c>
       <c r="L4">
-        <v>0.9649570325169724</v>
+        <v>1.038382439930384</v>
       </c>
       <c r="M4">
-        <v>1.028991854570399</v>
+        <v>1.057923486629055</v>
       </c>
       <c r="N4">
-        <v>0.9647649613633282</v>
+        <v>1.043341292229706</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9466514397451219</v>
+        <v>1.038076203230033</v>
       </c>
       <c r="D5">
-        <v>1.032460846760807</v>
+        <v>1.048031343421471</v>
       </c>
       <c r="E5">
-        <v>0.9579420053686776</v>
+        <v>1.036544326586038</v>
       </c>
       <c r="F5">
-        <v>1.021215378370164</v>
+        <v>1.055863580229932</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047748981026028</v>
+        <v>1.038120694454123</v>
       </c>
       <c r="J5">
-        <v>0.9670299466278968</v>
+        <v>1.042501091912006</v>
       </c>
       <c r="K5">
-        <v>1.041967481955499</v>
+        <v>1.050434136969881</v>
       </c>
       <c r="L5">
-        <v>0.9683378861068475</v>
+        <v>1.038975168557306</v>
       </c>
       <c r="M5">
-        <v>1.03084596675953</v>
+        <v>1.058247625241122</v>
       </c>
       <c r="N5">
-        <v>0.9684032400719935</v>
+        <v>1.043981563039067</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9473574717561</v>
+        <v>1.038200135044488</v>
       </c>
       <c r="D6">
-        <v>1.03268182992503</v>
+        <v>1.04807120273447</v>
       </c>
       <c r="E6">
-        <v>0.9585506789199826</v>
+        <v>1.036652683800114</v>
       </c>
       <c r="F6">
-        <v>1.02156375178312</v>
+        <v>1.055926595738892</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047830256664679</v>
+        <v>1.038131195872133</v>
       </c>
       <c r="J6">
-        <v>0.9676325772265505</v>
+        <v>1.042608307935308</v>
       </c>
       <c r="K6">
-        <v>1.042149943289825</v>
+        <v>1.050465305533412</v>
       </c>
       <c r="L6">
-        <v>0.9688986587452397</v>
+        <v>1.039074559022948</v>
       </c>
       <c r="M6">
-        <v>1.031153806340312</v>
+        <v>1.05830196692168</v>
       </c>
       <c r="N6">
-        <v>0.9690067264752201</v>
+        <v>1.04408893132142</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.942452729432192</v>
+        <v>1.037347151439189</v>
       </c>
       <c r="D7">
-        <v>1.031149988199601</v>
+        <v>1.047796854958576</v>
       </c>
       <c r="E7">
-        <v>0.9543230100560828</v>
+        <v>1.035906859710073</v>
       </c>
       <c r="F7">
-        <v>1.019147091223606</v>
+        <v>1.05549285174676</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047265221797512</v>
+        <v>1.03805876241162</v>
       </c>
       <c r="J7">
-        <v>0.9634458783436791</v>
+        <v>1.041870281404624</v>
       </c>
       <c r="K7">
-        <v>1.040883572237496</v>
+        <v>1.050250665694893</v>
       </c>
       <c r="L7">
-        <v>0.9650026785545145</v>
+        <v>1.038390368829078</v>
       </c>
       <c r="M7">
-        <v>1.029016866311634</v>
+        <v>1.057927823335039</v>
       </c>
       <c r="N7">
-        <v>0.9648140819997139</v>
+        <v>1.04334985670841</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9205617586826734</v>
+        <v>1.033761297189624</v>
       </c>
       <c r="D8">
-        <v>1.024411407490543</v>
+        <v>1.046643375884356</v>
       </c>
       <c r="E8">
-        <v>0.9354770719959078</v>
+        <v>1.032770615748698</v>
       </c>
       <c r="F8">
-        <v>1.008464850344364</v>
+        <v>1.053668805666905</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044736531953416</v>
+        <v>1.037750392733979</v>
       </c>
       <c r="J8">
-        <v>0.9447551540897857</v>
+        <v>1.038765390637913</v>
       </c>
       <c r="K8">
-        <v>1.035270559742578</v>
+        <v>1.049345479256977</v>
       </c>
       <c r="L8">
-        <v>0.9476082983111326</v>
+        <v>1.035511188154419</v>
       </c>
       <c r="M8">
-        <v>1.019531367803058</v>
+        <v>1.056351845813849</v>
       </c>
       <c r="N8">
-        <v>0.946096814773524</v>
+        <v>1.040240556640674</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.8747691831789622</v>
+        <v>1.027360613827603</v>
       </c>
       <c r="D9">
-        <v>1.010888815978892</v>
+        <v>1.044584531170682</v>
       </c>
       <c r="E9">
-        <v>0.8962084988312136</v>
+        <v>1.027169267400815</v>
       </c>
       <c r="F9">
-        <v>0.9867394376032074</v>
+        <v>1.050411220840563</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039474541001761</v>
+        <v>1.037185504894119</v>
       </c>
       <c r="J9">
-        <v>0.9056770165367561</v>
+        <v>1.033214553905636</v>
       </c>
       <c r="K9">
-        <v>1.02380766594261</v>
+        <v>1.047719357076175</v>
       </c>
       <c r="L9">
-        <v>0.9112445177501775</v>
+        <v>1.030360923846091</v>
       </c>
       <c r="M9">
-        <v>1.000051385565331</v>
+        <v>1.053527493077288</v>
       </c>
       <c r="N9">
-        <v>0.9069631817828443</v>
+        <v>1.034681837083548</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.8361364137679398</v>
+        <v>1.023033987049522</v>
       </c>
       <c r="D10">
-        <v>1.000154034987962</v>
+        <v>1.043193512659956</v>
       </c>
       <c r="E10">
-        <v>0.8632923998507598</v>
+        <v>1.023380906019408</v>
       </c>
       <c r="F10">
-        <v>0.9691613041963238</v>
+        <v>1.048208727077987</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035140910720918</v>
+        <v>1.03679411318609</v>
       </c>
       <c r="J10">
-        <v>0.8727896940660322</v>
+        <v>1.029456619023988</v>
       </c>
       <c r="K10">
-        <v>1.014520508842361</v>
+        <v>1.046613605020734</v>
       </c>
       <c r="L10">
-        <v>0.8806629765536282</v>
+        <v>1.026872205417472</v>
       </c>
       <c r="M10">
-        <v>0.9841106157263289</v>
+        <v>1.051611265008568</v>
       </c>
       <c r="N10">
-        <v>0.8740291555419831</v>
+        <v>1.030918565503327</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.8160231104928498</v>
+        <v>1.021145394948956</v>
       </c>
       <c r="D11">
-        <v>0.9948301661370469</v>
+        <v>1.04258662687459</v>
       </c>
       <c r="E11">
-        <v>0.8462514855049463</v>
+        <v>1.021726805939236</v>
       </c>
       <c r="F11">
-        <v>0.960312748149347</v>
+        <v>1.047247359237911</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032943948128689</v>
+        <v>1.036621047130666</v>
       </c>
       <c r="J11">
-        <v>0.8557164368338005</v>
+        <v>1.027814909035591</v>
       </c>
       <c r="K11">
-        <v>1.009850240980401</v>
+        <v>1.046129483233999</v>
       </c>
       <c r="L11">
-        <v>0.8648005431205855</v>
+        <v>1.025347641835661</v>
       </c>
       <c r="M11">
-        <v>0.9760240339440073</v>
+        <v>1.050773261709678</v>
       </c>
       <c r="N11">
-        <v>0.8569316523261516</v>
+        <v>1.029274524098439</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.8077911269760639</v>
+        <v>1.020441526476554</v>
       </c>
       <c r="D12">
-        <v>0.9927058255248565</v>
+        <v>1.042360500489943</v>
       </c>
       <c r="E12">
-        <v>0.8392985742128486</v>
+        <v>1.021110263936215</v>
       </c>
       <c r="F12">
-        <v>0.9567547156283628</v>
+        <v>1.046889079491171</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032058607017868</v>
+        <v>1.036556216234645</v>
       </c>
       <c r="J12">
-        <v>0.8487407181627102</v>
+        <v>1.027202850068592</v>
       </c>
       <c r="K12">
-        <v>1.007974117457706</v>
+        <v>1.045948843227012</v>
       </c>
       <c r="L12">
-        <v>0.858323045085831</v>
+        <v>1.024779187591816</v>
       </c>
       <c r="M12">
-        <v>0.9727601283940275</v>
+        <v>1.050460717608458</v>
       </c>
       <c r="N12">
-        <v>0.8499460273344224</v>
+        <v>1.028661595937503</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.8095977734557519</v>
+        <v>1.020592616937382</v>
       </c>
       <c r="D13">
-        <v>0.9931692889960794</v>
+        <v>1.042409037396158</v>
       </c>
       <c r="E13">
-        <v>0.8408233774735355</v>
+        <v>1.021242612156682</v>
       </c>
       <c r="F13">
-        <v>0.9575323567798613</v>
+        <v>1.046965985858051</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032252184452818</v>
+        <v>1.036570147524426</v>
       </c>
       <c r="J13">
-        <v>0.8502710104130958</v>
+        <v>1.027334242077681</v>
       </c>
       <c r="K13">
-        <v>1.008384057034142</v>
+        <v>1.045987628288445</v>
       </c>
       <c r="L13">
-        <v>0.8597438501122275</v>
+        <v>1.024901222023235</v>
       </c>
       <c r="M13">
-        <v>0.97347409969511</v>
+        <v>1.050527817460275</v>
       </c>
       <c r="N13">
-        <v>0.8514784927753304</v>
+        <v>1.028793174538316</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.8153603869025603</v>
+        <v>1.021087261645565</v>
       </c>
       <c r="D14">
-        <v>0.9946579558069548</v>
+        <v>1.042567949611854</v>
       </c>
       <c r="E14">
-        <v>0.8456912520023177</v>
+        <v>1.021675886391914</v>
       </c>
       <c r="F14">
-        <v>0.9600249166082171</v>
+        <v>1.047217768083049</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032872362778122</v>
+        <v>1.036615699377189</v>
       </c>
       <c r="J14">
-        <v>0.8551545753643852</v>
+        <v>1.027764362496614</v>
       </c>
       <c r="K14">
-        <v>1.009698425506192</v>
+        <v>1.046114568205916</v>
       </c>
       <c r="L14">
-        <v>0.864278730156758</v>
+        <v>1.025300697783504</v>
       </c>
       <c r="M14">
-        <v>0.9757602622370973</v>
+        <v>1.050747452853847</v>
       </c>
       <c r="N14">
-        <v>0.8563689929490035</v>
+        <v>1.02922390577758</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.81879911138799</v>
+        <v>1.021391713026634</v>
       </c>
       <c r="D15">
-        <v>0.9955537639978195</v>
+        <v>1.042665767165422</v>
       </c>
       <c r="E15">
-        <v>0.8485990782945209</v>
+        <v>1.021942555682682</v>
       </c>
       <c r="F15">
-        <v>0.9615210295004148</v>
+        <v>1.047372741433987</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033244380856355</v>
+        <v>1.036643692754365</v>
       </c>
       <c r="J15">
-        <v>0.858070455398947</v>
+        <v>1.028029072783126</v>
       </c>
       <c r="K15">
-        <v>1.010487622803874</v>
+        <v>1.04619267152194</v>
       </c>
       <c r="L15">
-        <v>0.8669869197105434</v>
+        <v>1.025546539141887</v>
       </c>
       <c r="M15">
-        <v>0.9771308089919635</v>
+        <v>1.050882607932811</v>
       </c>
       <c r="N15">
-        <v>0.8592890138676706</v>
+        <v>1.02948899198306</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.8373824160618153</v>
+        <v>1.023159000406712</v>
       </c>
       <c r="D16">
-        <v>1.000489963411683</v>
+        <v>1.043233692118843</v>
       </c>
       <c r="E16">
-        <v>0.8643503979953149</v>
+        <v>1.023490387874556</v>
       </c>
       <c r="F16">
-        <v>0.969716528898617</v>
+        <v>1.04827236550514</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035278488266622</v>
+        <v>1.036805522764258</v>
       </c>
       <c r="J16">
-        <v>0.873848620046065</v>
+        <v>1.029565261945846</v>
       </c>
       <c r="K16">
-        <v>1.014813725298569</v>
+        <v>1.046645621085476</v>
       </c>
       <c r="L16">
-        <v>0.881647164658998</v>
+        <v>1.026973086242703</v>
       </c>
       <c r="M16">
-        <v>0.9846166098472278</v>
+        <v>1.051666703805601</v>
       </c>
       <c r="N16">
-        <v>0.8750895853183681</v>
+        <v>1.031027362710595</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.8480048679613112</v>
+        <v>1.024263460143914</v>
       </c>
       <c r="D17">
-        <v>1.003382224309091</v>
+        <v>1.043588702904453</v>
       </c>
       <c r="E17">
-        <v>0.8733804259794703</v>
+        <v>1.024457577890755</v>
       </c>
       <c r="F17">
-        <v>0.9744824659776484</v>
+        <v>1.048834599123327</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036457816308628</v>
+        <v>1.036906068217264</v>
       </c>
       <c r="J17">
-        <v>0.8828815183984821</v>
+        <v>1.030524937590616</v>
       </c>
       <c r="K17">
-        <v>1.017331209634613</v>
+        <v>1.046928308034109</v>
       </c>
       <c r="L17">
-        <v>0.8900440365882956</v>
+        <v>1.027864143534453</v>
       </c>
       <c r="M17">
-        <v>0.9889532087881298</v>
+        <v>1.052156312454499</v>
       </c>
       <c r="N17">
-        <v>0.8841353114225338</v>
+        <v>1.031988401204857</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.8538965309870747</v>
+        <v>1.024906218617781</v>
       </c>
       <c r="D18">
-        <v>1.005008042629667</v>
+        <v>1.043795335283112</v>
       </c>
       <c r="E18">
-        <v>0.8783965744077156</v>
+        <v>1.025020405370191</v>
       </c>
       <c r="F18">
-        <v>0.9771505409601819</v>
+        <v>1.049161802306131</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037116645292802</v>
+        <v>1.036964368693406</v>
       </c>
       <c r="J18">
-        <v>0.8878953837978983</v>
+        <v>1.031083306433438</v>
       </c>
       <c r="K18">
-        <v>1.018740887061754</v>
+        <v>1.047092681961315</v>
       </c>
       <c r="L18">
-        <v>0.8947059417173864</v>
+        <v>1.028382543474883</v>
       </c>
       <c r="M18">
-        <v>0.9913756970412023</v>
+        <v>1.052441097670393</v>
       </c>
       <c r="N18">
-        <v>0.8891562970859153</v>
+        <v>1.032547562995481</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.8558588913563037</v>
+        <v>1.025125138608876</v>
       </c>
       <c r="D19">
-        <v>1.005552944805947</v>
+        <v>1.043865717533195</v>
       </c>
       <c r="E19">
-        <v>0.880068499746236</v>
+        <v>1.025212093672988</v>
       </c>
       <c r="F19">
-        <v>0.9780430486549392</v>
+        <v>1.049273245887941</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037336789193305</v>
+        <v>1.036984189172308</v>
       </c>
       <c r="J19">
-        <v>0.8895659363595959</v>
+        <v>1.031273461666548</v>
       </c>
       <c r="K19">
-        <v>1.019212477831403</v>
+        <v>1.047148642750454</v>
       </c>
       <c r="L19">
-        <v>0.8962593825013571</v>
+        <v>1.028559079524987</v>
       </c>
       <c r="M19">
-        <v>0.9921852208164983</v>
+        <v>1.052538068107</v>
       </c>
       <c r="N19">
-        <v>0.8908292220238656</v>
+        <v>1.032737988270834</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.846897922472462</v>
+        <v>1.024145113107971</v>
       </c>
       <c r="D20">
-        <v>1.0030784722513</v>
+        <v>1.043550659171643</v>
       </c>
       <c r="E20">
-        <v>0.8724385773147438</v>
+        <v>1.024353944429347</v>
       </c>
       <c r="F20">
-        <v>0.9739831267135803</v>
+        <v>1.048774353359317</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036334398406877</v>
+        <v>1.036895316478472</v>
       </c>
       <c r="J20">
-        <v>0.8819397906152647</v>
+        <v>1.030422118182203</v>
       </c>
       <c r="K20">
-        <v>1.017067405567208</v>
+        <v>1.046898031531966</v>
       </c>
       <c r="L20">
-        <v>0.8891684977481836</v>
+        <v>1.027768680498212</v>
       </c>
       <c r="M20">
-        <v>0.9884994164174116</v>
+        <v>1.052103864554372</v>
       </c>
       <c r="N20">
-        <v>0.8831922462778464</v>
+        <v>1.031885435781091</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.8136875219257036</v>
+        <v>1.020941667004356</v>
       </c>
       <c r="D21">
-        <v>0.9942241802837839</v>
+        <v>1.042521173434342</v>
       </c>
       <c r="E21">
-        <v>0.8442774672131856</v>
+        <v>1.021548357493826</v>
       </c>
       <c r="F21">
-        <v>0.9592994409555209</v>
+        <v>1.047143657464637</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032691903928934</v>
+        <v>1.036602300633713</v>
       </c>
       <c r="J21">
-        <v>0.8537365196952235</v>
+        <v>1.027637765619774</v>
       </c>
       <c r="K21">
-        <v>1.009315809821799</v>
+        <v>1.046077210207956</v>
       </c>
       <c r="L21">
-        <v>0.8629618127675175</v>
+        <v>1.025183122431958</v>
       </c>
       <c r="M21">
-        <v>0.9750952223753343</v>
+        <v>1.050682811079494</v>
       </c>
       <c r="N21">
-        <v>0.8549489234781383</v>
+        <v>1.029097129118653</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.7880662815866454</v>
+        <v>1.018913826699085</v>
       </c>
       <c r="D22">
-        <v>0.9877481960655754</v>
+        <v>1.041869825165271</v>
       </c>
       <c r="E22">
-        <v>0.8226944053934681</v>
+        <v>1.019771979213502</v>
       </c>
       <c r="F22">
-        <v>0.9483851926569865</v>
+        <v>1.046111502129803</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029973006397869</v>
+        <v>1.036414904716822</v>
       </c>
       <c r="J22">
-        <v>0.8320585597680565</v>
+        <v>1.02587404793262</v>
       </c>
       <c r="K22">
-        <v>1.003566334453978</v>
+        <v>1.045556400215973</v>
       </c>
       <c r="L22">
-        <v>0.8428420323949151</v>
+        <v>1.023544925780072</v>
       </c>
       <c r="M22">
-        <v>0.9650535115922674</v>
+        <v>1.049781961010995</v>
       </c>
       <c r="N22">
-        <v>0.833240178361378</v>
+        <v>1.027330906750083</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.8022531513734079</v>
+        <v>1.019990152253725</v>
       </c>
       <c r="D23">
-        <v>0.991294893245329</v>
+        <v>1.042215508445552</v>
       </c>
       <c r="E23">
-        <v>0.8346286024407479</v>
+        <v>1.020714871378953</v>
       </c>
       <c r="F23">
-        <v>0.9543824212474105</v>
+        <v>1.046659329523128</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031467833353552</v>
+        <v>1.036514549242649</v>
       </c>
       <c r="J23">
-        <v>0.8440522102594074</v>
+        <v>1.026810294352715</v>
       </c>
       <c r="K23">
-        <v>1.006723933745722</v>
+        <v>1.045832944894269</v>
       </c>
       <c r="L23">
-        <v>0.8539706808792085</v>
+        <v>1.024414579046485</v>
       </c>
       <c r="M23">
-        <v>0.9705799162808033</v>
+        <v>1.050260228460999</v>
       </c>
       <c r="N23">
-        <v>0.8452508612121173</v>
+        <v>1.028268482747483</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.847399027789045</v>
+        <v>1.024198593528094</v>
       </c>
       <c r="D24">
-        <v>1.003215910956581</v>
+        <v>1.043567850854096</v>
       </c>
       <c r="E24">
-        <v>0.8728649207151454</v>
+        <v>1.02440077599861</v>
       </c>
       <c r="F24">
-        <v>0.9742090967781764</v>
+        <v>1.048801578106341</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036390254090473</v>
+        <v>1.036900175795231</v>
       </c>
       <c r="J24">
-        <v>0.8823660913757362</v>
+        <v>1.030468582149568</v>
       </c>
       <c r="K24">
-        <v>1.017186785984829</v>
+        <v>1.046911713763283</v>
       </c>
       <c r="L24">
-        <v>0.8895648328235809</v>
+        <v>1.027811820267903</v>
       </c>
       <c r="M24">
-        <v>0.9887047910495199</v>
+        <v>1.052127565958656</v>
       </c>
       <c r="N24">
-        <v>0.883619152434295</v>
+        <v>1.031931965732618</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.8877161289036224</v>
+        <v>1.029025502549337</v>
       </c>
       <c r="D25">
-        <v>1.014628330622919</v>
+        <v>1.045119985192356</v>
       </c>
       <c r="E25">
-        <v>0.9072864198807147</v>
+        <v>1.028626608219009</v>
       </c>
       <c r="F25">
-        <v>0.9927898870758675</v>
+        <v>1.051258688202265</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04095276673732</v>
+        <v>1.03733412474149</v>
       </c>
       <c r="J25">
-        <v>0.9167186403327366</v>
+        <v>1.034659403968393</v>
       </c>
       <c r="K25">
-        <v>1.027003726798094</v>
+        <v>1.04814350962181</v>
       </c>
       <c r="L25">
-        <v>0.9215174643474654</v>
+        <v>1.031701853411071</v>
       </c>
       <c r="M25">
-        <v>1.005501171512946</v>
+        <v>1.054263414790475</v>
       </c>
       <c r="N25">
-        <v>0.9180204859511066</v>
+        <v>1.036128738999121</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_140/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_140/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.032832748375253</v>
+        <v>0.9145155103197824</v>
       </c>
       <c r="D2">
-        <v>1.046344668908361</v>
+        <v>1.022579962057285</v>
       </c>
       <c r="E2">
-        <v>1.03195827190779</v>
+        <v>0.9302793061751519</v>
       </c>
       <c r="F2">
-        <v>1.053196334805676</v>
+        <v>1.005546189499887</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03766955874605</v>
+        <v>1.044037869891105</v>
       </c>
       <c r="J2">
-        <v>1.0379607991498</v>
+        <v>0.9395926474810689</v>
       </c>
       <c r="K2">
-        <v>1.049110366666996</v>
+        <v>1.033733435750624</v>
       </c>
       <c r="L2">
-        <v>1.034764887323942</v>
+        <v>0.9428037214915113</v>
       </c>
       <c r="M2">
-        <v>1.055942971156751</v>
+        <v>1.016928794102651</v>
       </c>
       <c r="N2">
-        <v>1.03943482254036</v>
+        <v>0.940926976813275</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.035573872792656</v>
+        <v>0.9318987339950193</v>
       </c>
       <c r="D3">
-        <v>1.047226457215766</v>
+        <v>1.027880656992014</v>
       </c>
       <c r="E3">
-        <v>1.034356095755814</v>
+        <v>0.9452320951732348</v>
       </c>
       <c r="F3">
-        <v>1.054590940309874</v>
+        <v>1.013975191858001</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037907034404308</v>
+        <v>1.04604688952123</v>
       </c>
       <c r="J3">
-        <v>1.040335306844945</v>
+        <v>0.9544353069918418</v>
       </c>
       <c r="K3">
-        <v>1.049803596280695</v>
+        <v>1.038168807433345</v>
       </c>
       <c r="L3">
-        <v>1.03696713436302</v>
+        <v>0.9566172633910635</v>
       </c>
       <c r="M3">
-        <v>1.05714908345357</v>
+        <v>1.024432326500365</v>
       </c>
       <c r="N3">
-        <v>1.041812702308792</v>
+        <v>0.9557907146030301</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.037337268428877</v>
+        <v>0.9423952700932011</v>
       </c>
       <c r="D4">
-        <v>1.047793676142792</v>
+        <v>1.031132088738828</v>
       </c>
       <c r="E4">
-        <v>1.035898217808485</v>
+        <v>0.9542734929962504</v>
       </c>
       <c r="F4">
-        <v>1.055487825837564</v>
+        <v>1.019118828233066</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03805792104658</v>
+        <v>1.047258596997461</v>
       </c>
       <c r="J4">
-        <v>1.041861729071215</v>
+        <v>0.9633968273653092</v>
       </c>
       <c r="K4">
-        <v>1.050248177205821</v>
+        <v>1.040868753327844</v>
       </c>
       <c r="L4">
-        <v>1.038382439930384</v>
+        <v>0.9649570325169722</v>
       </c>
       <c r="M4">
-        <v>1.057923486629055</v>
+        <v>1.028991854570399</v>
       </c>
       <c r="N4">
-        <v>1.043341292229706</v>
+        <v>0.9647649613633285</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.038076203230033</v>
+        <v>0.9466514397451194</v>
       </c>
       <c r="D5">
-        <v>1.048031343421471</v>
+        <v>1.032460846760807</v>
       </c>
       <c r="E5">
-        <v>1.036544326586038</v>
+        <v>0.9579420053686755</v>
       </c>
       <c r="F5">
-        <v>1.055863580229932</v>
+        <v>1.021215378370163</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038120694454123</v>
+        <v>1.047748981026028</v>
       </c>
       <c r="J5">
-        <v>1.042501091912006</v>
+        <v>0.9670299466278947</v>
       </c>
       <c r="K5">
-        <v>1.050434136969881</v>
+        <v>1.041967481955499</v>
       </c>
       <c r="L5">
-        <v>1.038975168557306</v>
+        <v>0.9683378861068455</v>
       </c>
       <c r="M5">
-        <v>1.058247625241122</v>
+        <v>1.030845966759529</v>
       </c>
       <c r="N5">
-        <v>1.043981563039067</v>
+        <v>0.9684032400719913</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.038200135044488</v>
+        <v>0.9473574717560993</v>
       </c>
       <c r="D6">
-        <v>1.04807120273447</v>
+        <v>1.03268182992503</v>
       </c>
       <c r="E6">
-        <v>1.036652683800114</v>
+        <v>0.958550678919982</v>
       </c>
       <c r="F6">
-        <v>1.055926595738892</v>
+        <v>1.021563751783119</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038131195872133</v>
+        <v>1.047830256664679</v>
       </c>
       <c r="J6">
-        <v>1.042608307935308</v>
+        <v>0.9676325772265498</v>
       </c>
       <c r="K6">
-        <v>1.050465305533412</v>
+        <v>1.042149943289825</v>
       </c>
       <c r="L6">
-        <v>1.039074559022948</v>
+        <v>0.9688986587452388</v>
       </c>
       <c r="M6">
-        <v>1.05830196692168</v>
+        <v>1.031153806340312</v>
       </c>
       <c r="N6">
-        <v>1.04408893132142</v>
+        <v>0.9690067264752196</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.037347151439189</v>
+        <v>0.9424527294321905</v>
       </c>
       <c r="D7">
-        <v>1.047796854958576</v>
+        <v>1.0311499881996</v>
       </c>
       <c r="E7">
-        <v>1.035906859710073</v>
+        <v>0.9543230100560811</v>
       </c>
       <c r="F7">
-        <v>1.05549285174676</v>
+        <v>1.019147091223606</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03805876241162</v>
+        <v>1.047265221797512</v>
       </c>
       <c r="J7">
-        <v>1.041870281404624</v>
+        <v>0.9634458783436776</v>
       </c>
       <c r="K7">
-        <v>1.050250665694893</v>
+        <v>1.040883572237495</v>
       </c>
       <c r="L7">
-        <v>1.038390368829078</v>
+        <v>0.965002678554513</v>
       </c>
       <c r="M7">
-        <v>1.057927823335039</v>
+        <v>1.029016866311633</v>
       </c>
       <c r="N7">
-        <v>1.04334985670841</v>
+        <v>0.9648140819997123</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.033761297189624</v>
+        <v>0.920561758682673</v>
       </c>
       <c r="D8">
-        <v>1.046643375884356</v>
+        <v>1.024411407490543</v>
       </c>
       <c r="E8">
-        <v>1.032770615748698</v>
+        <v>0.9354770719959073</v>
       </c>
       <c r="F8">
-        <v>1.053668805666905</v>
+        <v>1.008464850344364</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037750392733979</v>
+        <v>1.044736531953416</v>
       </c>
       <c r="J8">
-        <v>1.038765390637913</v>
+        <v>0.9447551540897853</v>
       </c>
       <c r="K8">
-        <v>1.049345479256977</v>
+        <v>1.035270559742578</v>
       </c>
       <c r="L8">
-        <v>1.035511188154419</v>
+        <v>0.9476082983111321</v>
       </c>
       <c r="M8">
-        <v>1.056351845813849</v>
+        <v>1.019531367803058</v>
       </c>
       <c r="N8">
-        <v>1.040240556640674</v>
+        <v>0.9460968147735234</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.027360613827603</v>
+        <v>0.8747691831789637</v>
       </c>
       <c r="D9">
-        <v>1.044584531170682</v>
+        <v>1.010888815978893</v>
       </c>
       <c r="E9">
-        <v>1.027169267400815</v>
+        <v>0.8962084988312151</v>
       </c>
       <c r="F9">
-        <v>1.050411220840563</v>
+        <v>0.9867394376032086</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037185504894119</v>
+        <v>1.039474541001761</v>
       </c>
       <c r="J9">
-        <v>1.033214553905636</v>
+        <v>0.9056770165367578</v>
       </c>
       <c r="K9">
-        <v>1.047719357076175</v>
+        <v>1.023807665942611</v>
       </c>
       <c r="L9">
-        <v>1.030360923846091</v>
+        <v>0.911244517750179</v>
       </c>
       <c r="M9">
-        <v>1.053527493077288</v>
+        <v>1.000051385565333</v>
       </c>
       <c r="N9">
-        <v>1.034681837083548</v>
+        <v>0.9069631817828456</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.023033987049522</v>
+        <v>0.8361364137679411</v>
       </c>
       <c r="D10">
-        <v>1.043193512659956</v>
+        <v>1.000154034987963</v>
       </c>
       <c r="E10">
-        <v>1.023380906019408</v>
+        <v>0.8632923998507608</v>
       </c>
       <c r="F10">
-        <v>1.048208727077987</v>
+        <v>0.9691613041963244</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03679411318609</v>
+        <v>1.035140910720918</v>
       </c>
       <c r="J10">
-        <v>1.029456619023988</v>
+        <v>0.8727896940660335</v>
       </c>
       <c r="K10">
-        <v>1.046613605020734</v>
+        <v>1.014520508842361</v>
       </c>
       <c r="L10">
-        <v>1.026872205417472</v>
+        <v>0.8806629765536291</v>
       </c>
       <c r="M10">
-        <v>1.051611265008568</v>
+        <v>0.9841106157263293</v>
       </c>
       <c r="N10">
-        <v>1.030918565503327</v>
+        <v>0.8740291555419842</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.021145394948956</v>
+        <v>0.8160231104928501</v>
       </c>
       <c r="D11">
-        <v>1.04258662687459</v>
+        <v>0.9948301661370471</v>
       </c>
       <c r="E11">
-        <v>1.021726805939236</v>
+        <v>0.8462514855049464</v>
       </c>
       <c r="F11">
-        <v>1.047247359237911</v>
+        <v>0.9603127481493473</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036621047130666</v>
+        <v>1.032943948128689</v>
       </c>
       <c r="J11">
-        <v>1.027814909035591</v>
+        <v>0.8557164368338006</v>
       </c>
       <c r="K11">
-        <v>1.046129483233999</v>
+        <v>1.009850240980401</v>
       </c>
       <c r="L11">
-        <v>1.025347641835661</v>
+        <v>0.8648005431205859</v>
       </c>
       <c r="M11">
-        <v>1.050773261709678</v>
+        <v>0.9760240339440076</v>
       </c>
       <c r="N11">
-        <v>1.029274524098439</v>
+        <v>0.856931652326152</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.020441526476554</v>
+        <v>0.8077911269760683</v>
       </c>
       <c r="D12">
-        <v>1.042360500489943</v>
+        <v>0.9927058255248573</v>
       </c>
       <c r="E12">
-        <v>1.021110263936215</v>
+        <v>0.8392985742128525</v>
       </c>
       <c r="F12">
-        <v>1.046889079491171</v>
+        <v>0.9567547156283643</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036556216234645</v>
+        <v>1.032058607017868</v>
       </c>
       <c r="J12">
-        <v>1.027202850068592</v>
+        <v>0.8487407181627142</v>
       </c>
       <c r="K12">
-        <v>1.045948843227012</v>
+        <v>1.007974117457707</v>
       </c>
       <c r="L12">
-        <v>1.024779187591816</v>
+        <v>0.8583230450858348</v>
       </c>
       <c r="M12">
-        <v>1.050460717608458</v>
+        <v>0.9727601283940289</v>
       </c>
       <c r="N12">
-        <v>1.028661595937503</v>
+        <v>0.8499460273344261</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.020592616937382</v>
+        <v>0.8095977734557496</v>
       </c>
       <c r="D13">
-        <v>1.042409037396158</v>
+        <v>0.9931692889960786</v>
       </c>
       <c r="E13">
-        <v>1.021242612156682</v>
+        <v>0.8408233774735335</v>
       </c>
       <c r="F13">
-        <v>1.046965985858051</v>
+        <v>0.95753235677986</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036570147524426</v>
+        <v>1.032252184452818</v>
       </c>
       <c r="J13">
-        <v>1.027334242077681</v>
+        <v>0.8502710104130937</v>
       </c>
       <c r="K13">
-        <v>1.045987628288445</v>
+        <v>1.008384057034142</v>
       </c>
       <c r="L13">
-        <v>1.024901222023235</v>
+        <v>0.8597438501122255</v>
       </c>
       <c r="M13">
-        <v>1.050527817460275</v>
+        <v>0.9734740996951088</v>
       </c>
       <c r="N13">
-        <v>1.028793174538316</v>
+        <v>0.8514784927753285</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.021087261645565</v>
+        <v>0.8153603869025615</v>
       </c>
       <c r="D14">
-        <v>1.042567949611854</v>
+        <v>0.9946579558069552</v>
       </c>
       <c r="E14">
-        <v>1.021675886391914</v>
+        <v>0.845691252002319</v>
       </c>
       <c r="F14">
-        <v>1.047217768083049</v>
+        <v>0.9600249166082178</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036615699377189</v>
+        <v>1.032872362778123</v>
       </c>
       <c r="J14">
-        <v>1.027764362496614</v>
+        <v>0.8551545753643862</v>
       </c>
       <c r="K14">
-        <v>1.046114568205916</v>
+        <v>1.009698425506193</v>
       </c>
       <c r="L14">
-        <v>1.025300697783504</v>
+        <v>0.8642787301567589</v>
       </c>
       <c r="M14">
-        <v>1.050747452853847</v>
+        <v>0.975760262237098</v>
       </c>
       <c r="N14">
-        <v>1.02922390577758</v>
+        <v>0.8563689929490046</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.021391713026634</v>
+        <v>0.8187991113879903</v>
       </c>
       <c r="D15">
-        <v>1.042665767165422</v>
+        <v>0.9955537639978195</v>
       </c>
       <c r="E15">
-        <v>1.021942555682682</v>
+        <v>0.848599078294521</v>
       </c>
       <c r="F15">
-        <v>1.047372741433987</v>
+        <v>0.9615210295004148</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036643692754365</v>
+        <v>1.033244380856355</v>
       </c>
       <c r="J15">
-        <v>1.028029072783126</v>
+        <v>0.8580704553989474</v>
       </c>
       <c r="K15">
-        <v>1.04619267152194</v>
+        <v>1.010487622803874</v>
       </c>
       <c r="L15">
-        <v>1.025546539141887</v>
+        <v>0.8669869197105438</v>
       </c>
       <c r="M15">
-        <v>1.050882607932811</v>
+        <v>0.9771308089919637</v>
       </c>
       <c r="N15">
-        <v>1.02948899198306</v>
+        <v>0.8592890138676706</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.023159000406712</v>
+        <v>0.8373824160618163</v>
       </c>
       <c r="D16">
-        <v>1.043233692118843</v>
+        <v>1.000489963411684</v>
       </c>
       <c r="E16">
-        <v>1.023490387874556</v>
+        <v>0.8643503979953162</v>
       </c>
       <c r="F16">
-        <v>1.04827236550514</v>
+        <v>0.9697165288986178</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036805522764258</v>
+        <v>1.035278488266622</v>
       </c>
       <c r="J16">
-        <v>1.029565261945846</v>
+        <v>0.8738486200460661</v>
       </c>
       <c r="K16">
-        <v>1.046645621085476</v>
+        <v>1.01481372529857</v>
       </c>
       <c r="L16">
-        <v>1.026973086242703</v>
+        <v>0.8816471646589994</v>
       </c>
       <c r="M16">
-        <v>1.051666703805601</v>
+        <v>0.9846166098472284</v>
       </c>
       <c r="N16">
-        <v>1.031027362710595</v>
+        <v>0.8750895853183693</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.024263460143914</v>
+        <v>0.8480048679613109</v>
       </c>
       <c r="D17">
-        <v>1.043588702904453</v>
+        <v>1.003382224309091</v>
       </c>
       <c r="E17">
-        <v>1.024457577890755</v>
+        <v>0.8733804259794703</v>
       </c>
       <c r="F17">
-        <v>1.048834599123327</v>
+        <v>0.9744824659776482</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036906068217264</v>
+        <v>1.036457816308628</v>
       </c>
       <c r="J17">
-        <v>1.030524937590616</v>
+        <v>0.8828815183984818</v>
       </c>
       <c r="K17">
-        <v>1.046928308034109</v>
+        <v>1.017331209634612</v>
       </c>
       <c r="L17">
-        <v>1.027864143534453</v>
+        <v>0.8900440365882956</v>
       </c>
       <c r="M17">
-        <v>1.052156312454499</v>
+        <v>0.9889532087881296</v>
       </c>
       <c r="N17">
-        <v>1.031988401204857</v>
+        <v>0.8841353114225334</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.024906218617781</v>
+        <v>0.8538965309870764</v>
       </c>
       <c r="D18">
-        <v>1.043795335283112</v>
+        <v>1.005008042629667</v>
       </c>
       <c r="E18">
-        <v>1.025020405370191</v>
+        <v>0.878396574407717</v>
       </c>
       <c r="F18">
-        <v>1.049161802306131</v>
+        <v>0.9771505409601831</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036964368693406</v>
+        <v>1.037116645292802</v>
       </c>
       <c r="J18">
-        <v>1.031083306433438</v>
+        <v>0.8878953837978999</v>
       </c>
       <c r="K18">
-        <v>1.047092681961315</v>
+        <v>1.018740887061754</v>
       </c>
       <c r="L18">
-        <v>1.028382543474883</v>
+        <v>0.8947059417173876</v>
       </c>
       <c r="M18">
-        <v>1.052441097670393</v>
+        <v>0.9913756970412033</v>
       </c>
       <c r="N18">
-        <v>1.032547562995481</v>
+        <v>0.8891562970859171</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.025125138608876</v>
+        <v>0.8558588913563039</v>
       </c>
       <c r="D19">
-        <v>1.043865717533195</v>
+        <v>1.005552944805947</v>
       </c>
       <c r="E19">
-        <v>1.025212093672988</v>
+        <v>0.8800684997462365</v>
       </c>
       <c r="F19">
-        <v>1.049273245887941</v>
+        <v>0.978043048654939</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036984189172308</v>
+        <v>1.037336789193305</v>
       </c>
       <c r="J19">
-        <v>1.031273461666548</v>
+        <v>0.8895659363595961</v>
       </c>
       <c r="K19">
-        <v>1.047148642750454</v>
+        <v>1.019212477831403</v>
       </c>
       <c r="L19">
-        <v>1.028559079524987</v>
+        <v>0.8962593825013573</v>
       </c>
       <c r="M19">
-        <v>1.052538068107</v>
+        <v>0.9921852208164982</v>
       </c>
       <c r="N19">
-        <v>1.032737988270834</v>
+        <v>0.8908292220238659</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.024145113107971</v>
+        <v>0.8468979224724615</v>
       </c>
       <c r="D20">
-        <v>1.043550659171643</v>
+        <v>1.0030784722513</v>
       </c>
       <c r="E20">
-        <v>1.024353944429347</v>
+        <v>0.8724385773147432</v>
       </c>
       <c r="F20">
-        <v>1.048774353359317</v>
+        <v>0.9739831267135801</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036895316478472</v>
+        <v>1.036334398406877</v>
       </c>
       <c r="J20">
-        <v>1.030422118182203</v>
+        <v>0.8819397906152642</v>
       </c>
       <c r="K20">
-        <v>1.046898031531966</v>
+        <v>1.017067405567208</v>
       </c>
       <c r="L20">
-        <v>1.027768680498212</v>
+        <v>0.8891684977481831</v>
       </c>
       <c r="M20">
-        <v>1.052103864554372</v>
+        <v>0.9884994164174115</v>
       </c>
       <c r="N20">
-        <v>1.031885435781091</v>
+        <v>0.8831922462778455</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.020941667004356</v>
+        <v>0.8136875219257009</v>
       </c>
       <c r="D21">
-        <v>1.042521173434342</v>
+        <v>0.9942241802837838</v>
       </c>
       <c r="E21">
-        <v>1.021548357493826</v>
+        <v>0.8442774672131832</v>
       </c>
       <c r="F21">
-        <v>1.047143657464637</v>
+        <v>0.9592994409555204</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036602300633713</v>
+        <v>1.032691903928934</v>
       </c>
       <c r="J21">
-        <v>1.027637765619774</v>
+        <v>0.853736519695221</v>
       </c>
       <c r="K21">
-        <v>1.046077210207956</v>
+        <v>1.009315809821798</v>
       </c>
       <c r="L21">
-        <v>1.025183122431958</v>
+        <v>0.8629618127675152</v>
       </c>
       <c r="M21">
-        <v>1.050682811079494</v>
+        <v>0.9750952223753335</v>
       </c>
       <c r="N21">
-        <v>1.029097129118653</v>
+        <v>0.8549489234781356</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.018913826699085</v>
+        <v>0.7880662815866442</v>
       </c>
       <c r="D22">
-        <v>1.041869825165271</v>
+        <v>0.987748196065575</v>
       </c>
       <c r="E22">
-        <v>1.019771979213502</v>
+        <v>0.8226944053934673</v>
       </c>
       <c r="F22">
-        <v>1.046111502129803</v>
+        <v>0.9483851926569863</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036414904716822</v>
+        <v>1.029973006397869</v>
       </c>
       <c r="J22">
-        <v>1.02587404793262</v>
+        <v>0.8320585597680556</v>
       </c>
       <c r="K22">
-        <v>1.045556400215973</v>
+        <v>1.003566334453978</v>
       </c>
       <c r="L22">
-        <v>1.023544925780072</v>
+        <v>0.8428420323949142</v>
       </c>
       <c r="M22">
-        <v>1.049781961010995</v>
+        <v>0.9650535115922672</v>
       </c>
       <c r="N22">
-        <v>1.027330906750083</v>
+        <v>0.8332401783613771</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.019990152253725</v>
+        <v>0.8022531513734078</v>
       </c>
       <c r="D23">
-        <v>1.042215508445552</v>
+        <v>0.9912948932453289</v>
       </c>
       <c r="E23">
-        <v>1.020714871378953</v>
+        <v>0.8346286024407475</v>
       </c>
       <c r="F23">
-        <v>1.046659329523128</v>
+        <v>0.9543824212474101</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036514549242649</v>
+        <v>1.031467833353552</v>
       </c>
       <c r="J23">
-        <v>1.026810294352715</v>
+        <v>0.8440522102594072</v>
       </c>
       <c r="K23">
-        <v>1.045832944894269</v>
+        <v>1.006723933745722</v>
       </c>
       <c r="L23">
-        <v>1.024414579046485</v>
+        <v>0.8539706808792082</v>
       </c>
       <c r="M23">
-        <v>1.050260228460999</v>
+        <v>0.970579916280803</v>
       </c>
       <c r="N23">
-        <v>1.028268482747483</v>
+        <v>0.8452508612121172</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.024198593528094</v>
+        <v>0.8473990277890475</v>
       </c>
       <c r="D24">
-        <v>1.043567850854096</v>
+        <v>1.003215910956582</v>
       </c>
       <c r="E24">
-        <v>1.02440077599861</v>
+        <v>0.872864920715148</v>
       </c>
       <c r="F24">
-        <v>1.048801578106341</v>
+        <v>0.9742090967781777</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036900175795231</v>
+        <v>1.036390254090474</v>
       </c>
       <c r="J24">
-        <v>1.030468582149568</v>
+        <v>0.8823660913757387</v>
       </c>
       <c r="K24">
-        <v>1.046911713763283</v>
+        <v>1.01718678598483</v>
       </c>
       <c r="L24">
-        <v>1.027811820267903</v>
+        <v>0.8895648328235833</v>
       </c>
       <c r="M24">
-        <v>1.052127565958656</v>
+        <v>0.9887047910495209</v>
       </c>
       <c r="N24">
-        <v>1.031931965732618</v>
+        <v>0.8836191524342976</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.029025502549337</v>
+        <v>0.8877161289036252</v>
       </c>
       <c r="D25">
-        <v>1.045119985192356</v>
+        <v>1.01462833062292</v>
       </c>
       <c r="E25">
-        <v>1.028626608219009</v>
+        <v>0.907286419880717</v>
       </c>
       <c r="F25">
-        <v>1.051258688202265</v>
+        <v>0.9927898870758689</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03733412474149</v>
+        <v>1.040952766737321</v>
       </c>
       <c r="J25">
-        <v>1.034659403968393</v>
+        <v>0.9167186403327391</v>
       </c>
       <c r="K25">
-        <v>1.04814350962181</v>
+        <v>1.027003726798096</v>
       </c>
       <c r="L25">
-        <v>1.031701853411071</v>
+        <v>0.9215174643474677</v>
       </c>
       <c r="M25">
-        <v>1.054263414790475</v>
+        <v>1.005501171512947</v>
       </c>
       <c r="N25">
-        <v>1.036128738999121</v>
+        <v>0.9180204859511093</v>
       </c>
     </row>
   </sheetData>
